--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.45114158526143</v>
+        <v>23.98720633333333</v>
       </c>
       <c r="H2">
-        <v>6.45114158526143</v>
+        <v>71.961619</v>
       </c>
       <c r="I2">
-        <v>0.02443702540897674</v>
+        <v>0.08089390088548276</v>
       </c>
       <c r="J2">
-        <v>0.02443702540897674</v>
+        <v>0.08089390088548276</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>10.35520055920242</v>
+        <v>41.95484722452301</v>
       </c>
       <c r="R2">
-        <v>10.35520055920242</v>
+        <v>377.5936250207071</v>
       </c>
       <c r="S2">
-        <v>8.437058104348304E-05</v>
+        <v>0.0002948358947492108</v>
       </c>
       <c r="T2">
-        <v>8.437058104348304E-05</v>
+        <v>0.0002948358947492109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.45114158526143</v>
+        <v>23.98720633333333</v>
       </c>
       <c r="H3">
-        <v>6.45114158526143</v>
+        <v>71.961619</v>
       </c>
       <c r="I3">
-        <v>0.02443702540897674</v>
+        <v>0.08089390088548276</v>
       </c>
       <c r="J3">
-        <v>0.02443702540897674</v>
+        <v>0.08089390088548276</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>918.8715617261045</v>
+        <v>3431.023330809172</v>
       </c>
       <c r="R3">
-        <v>918.8715617261045</v>
+        <v>30879.20997728254</v>
       </c>
       <c r="S3">
-        <v>0.007486646649085793</v>
+        <v>0.02411136973592068</v>
       </c>
       <c r="T3">
-        <v>0.007486646649085793</v>
+        <v>0.02411136973592068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.45114158526143</v>
+        <v>23.98720633333333</v>
       </c>
       <c r="H4">
-        <v>6.45114158526143</v>
+        <v>71.961619</v>
       </c>
       <c r="I4">
-        <v>0.02443702540897674</v>
+        <v>0.08089390088548276</v>
       </c>
       <c r="J4">
-        <v>0.02443702540897674</v>
+        <v>0.08089390088548276</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>784.5528378116803</v>
+        <v>3185.616427503543</v>
       </c>
       <c r="R4">
-        <v>784.5528378116803</v>
+        <v>28670.54784753189</v>
       </c>
       <c r="S4">
-        <v>0.006392264293390308</v>
+        <v>0.02238678321731083</v>
       </c>
       <c r="T4">
-        <v>0.006392264293390308</v>
+        <v>0.02238678321731083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.45114158526143</v>
+        <v>23.98720633333333</v>
       </c>
       <c r="H5">
-        <v>6.45114158526143</v>
+        <v>71.961619</v>
       </c>
       <c r="I5">
-        <v>0.02443702540897674</v>
+        <v>0.08089390088548276</v>
       </c>
       <c r="J5">
-        <v>0.02443702540897674</v>
+        <v>0.08089390088548276</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>805.8384665054015</v>
+        <v>3015.364160190299</v>
       </c>
       <c r="R5">
-        <v>805.8384665054015</v>
+        <v>27138.27744171269</v>
       </c>
       <c r="S5">
-        <v>0.006565692210164853</v>
+        <v>0.02119034268928904</v>
       </c>
       <c r="T5">
-        <v>0.006565692210164853</v>
+        <v>0.02119034268928904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.45114158526143</v>
+        <v>23.98720633333333</v>
       </c>
       <c r="H6">
-        <v>6.45114158526143</v>
+        <v>71.961619</v>
       </c>
       <c r="I6">
-        <v>0.02443702540897674</v>
+        <v>0.08089390088548276</v>
       </c>
       <c r="J6">
-        <v>0.02443702540897674</v>
+        <v>0.08089390088548276</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>339.7628648017158</v>
+        <v>1285.389992415717</v>
       </c>
       <c r="R6">
-        <v>339.7628648017158</v>
+        <v>11568.50993174146</v>
       </c>
       <c r="S6">
-        <v>0.002768269929339451</v>
+        <v>0.009033023204385605</v>
       </c>
       <c r="T6">
-        <v>0.002768269929339451</v>
+        <v>0.009033023204385607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.45114158526143</v>
+        <v>23.98720633333333</v>
       </c>
       <c r="H7">
-        <v>6.45114158526143</v>
+        <v>71.961619</v>
       </c>
       <c r="I7">
-        <v>0.02443702540897674</v>
+        <v>0.08089390088548276</v>
       </c>
       <c r="J7">
-        <v>0.02443702540897674</v>
+        <v>0.08089390088548276</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>139.8908058601226</v>
+        <v>551.7708629361262</v>
       </c>
       <c r="R7">
-        <v>139.8908058601226</v>
+        <v>4965.937766425136</v>
       </c>
       <c r="S7">
-        <v>0.001139781745952847</v>
+        <v>0.003877546143827401</v>
       </c>
       <c r="T7">
-        <v>0.001139781745952847</v>
+        <v>0.003877546143827403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>220.773807573675</v>
+        <v>234.3643643333333</v>
       </c>
       <c r="H8">
-        <v>220.773807573675</v>
+        <v>703.093093</v>
       </c>
       <c r="I8">
-        <v>0.8362946424304535</v>
+        <v>0.790364971894386</v>
       </c>
       <c r="J8">
-        <v>0.8362946424304535</v>
+        <v>0.790364971894386</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>354.3802326191731</v>
+        <v>409.9152258015811</v>
       </c>
       <c r="R8">
-        <v>354.3802326191731</v>
+        <v>3689.237032214229</v>
       </c>
       <c r="S8">
-        <v>0.002887367170289479</v>
+        <v>0.002880661720057259</v>
       </c>
       <c r="T8">
-        <v>0.002887367170289479</v>
+        <v>0.002880661720057259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>220.773807573675</v>
+        <v>234.3643643333333</v>
       </c>
       <c r="H9">
-        <v>220.773807573675</v>
+        <v>703.093093</v>
       </c>
       <c r="I9">
-        <v>0.8362946424304535</v>
+        <v>0.790364971894386</v>
       </c>
       <c r="J9">
-        <v>0.8362946424304535</v>
+        <v>0.790364971894386</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>31446.02713679555</v>
+        <v>33522.43653403327</v>
       </c>
       <c r="R9">
-        <v>31446.02713679555</v>
+        <v>301701.9288062994</v>
       </c>
       <c r="S9">
-        <v>0.2562113177694866</v>
+        <v>0.235577489218177</v>
       </c>
       <c r="T9">
-        <v>0.2562113177694866</v>
+        <v>0.235577489218177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>220.773807573675</v>
+        <v>234.3643643333333</v>
       </c>
       <c r="H10">
-        <v>220.773807573675</v>
+        <v>703.093093</v>
       </c>
       <c r="I10">
-        <v>0.8362946424304535</v>
+        <v>0.790364971894386</v>
       </c>
       <c r="J10">
-        <v>0.8362946424304535</v>
+        <v>0.790364971894386</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>26849.31263051752</v>
+        <v>31124.71534478784</v>
       </c>
       <c r="R10">
-        <v>26849.31263051752</v>
+        <v>280122.4381030906</v>
       </c>
       <c r="S10">
-        <v>0.2187588829693675</v>
+        <v>0.2187276060948485</v>
       </c>
       <c r="T10">
-        <v>0.2187588829693675</v>
+        <v>0.2187276060948485</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>220.773807573675</v>
+        <v>234.3643643333333</v>
       </c>
       <c r="H11">
-        <v>220.773807573675</v>
+        <v>703.093093</v>
       </c>
       <c r="I11">
-        <v>0.8362946424304535</v>
+        <v>0.790364971894386</v>
       </c>
       <c r="J11">
-        <v>0.8362946424304535</v>
+        <v>0.790364971894386</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>27577.75878709368</v>
+        <v>29461.28427029337</v>
       </c>
       <c r="R11">
-        <v>27577.75878709368</v>
+        <v>265151.5584326403</v>
       </c>
       <c r="S11">
-        <v>0.2246940094923014</v>
+        <v>0.2070379153523793</v>
       </c>
       <c r="T11">
-        <v>0.2246940094923014</v>
+        <v>0.2070379153523793</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>220.773807573675</v>
+        <v>234.3643643333333</v>
       </c>
       <c r="H12">
-        <v>220.773807573675</v>
+        <v>703.093093</v>
       </c>
       <c r="I12">
-        <v>0.8362946424304535</v>
+        <v>0.790364971894386</v>
       </c>
       <c r="J12">
-        <v>0.8362946424304535</v>
+        <v>0.790364971894386</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>11627.5143465751</v>
+        <v>12558.76171266815</v>
       </c>
       <c r="R12">
-        <v>11627.5143465751</v>
+        <v>113028.8554140134</v>
       </c>
       <c r="S12">
-        <v>0.0947369523075212</v>
+        <v>0.08825616088365447</v>
       </c>
       <c r="T12">
-        <v>0.0947369523075212</v>
+        <v>0.08825616088365448</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>220.773807573675</v>
+        <v>234.3643643333333</v>
       </c>
       <c r="H13">
-        <v>220.773807573675</v>
+        <v>703.093093</v>
       </c>
       <c r="I13">
-        <v>0.8362946424304535</v>
+        <v>0.790364971894386</v>
       </c>
       <c r="J13">
-        <v>0.8362946424304535</v>
+        <v>0.790364971894386</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>4787.404747843163</v>
+        <v>5391.016600794376</v>
       </c>
       <c r="R13">
-        <v>4787.404747843163</v>
+        <v>48519.14940714939</v>
       </c>
       <c r="S13">
-        <v>0.03900611272148722</v>
+        <v>0.03788513862526954</v>
       </c>
       <c r="T13">
-        <v>0.03900611272148722</v>
+        <v>0.03788513862526956</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.24502702904209</v>
+        <v>7.468602333333333</v>
       </c>
       <c r="H14">
-        <v>7.24502702904209</v>
+        <v>22.405807</v>
       </c>
       <c r="I14">
-        <v>0.02744427590954044</v>
+        <v>0.02518694209363544</v>
       </c>
       <c r="J14">
-        <v>0.02744427590954044</v>
+        <v>0.02518694209363544</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>11.62952431767671</v>
+        <v>13.062966379719</v>
       </c>
       <c r="R14">
-        <v>11.62952431767671</v>
+        <v>117.566697417471</v>
       </c>
       <c r="S14">
-        <v>9.475332885462465E-05</v>
+        <v>9.17994376199781E-05</v>
       </c>
       <c r="T14">
-        <v>9.475332885462465E-05</v>
+        <v>9.179943761997812E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.24502702904209</v>
+        <v>7.468602333333333</v>
       </c>
       <c r="H15">
-        <v>7.24502702904209</v>
+        <v>22.405807</v>
       </c>
       <c r="I15">
-        <v>0.02744427590954044</v>
+        <v>0.02518694209363544</v>
       </c>
       <c r="J15">
-        <v>0.02744427590954044</v>
+        <v>0.02518694209363544</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>1031.949029941181</v>
+        <v>1068.275667374958</v>
       </c>
       <c r="R15">
-        <v>1031.949029941181</v>
+        <v>9614.481006374621</v>
       </c>
       <c r="S15">
-        <v>0.008407962623768065</v>
+        <v>0.007507261569652563</v>
       </c>
       <c r="T15">
-        <v>0.008407962623768065</v>
+        <v>0.007507261569652563</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.24502702904209</v>
+        <v>7.468602333333333</v>
       </c>
       <c r="H16">
-        <v>7.24502702904209</v>
+        <v>22.405807</v>
       </c>
       <c r="I16">
-        <v>0.02744427590954044</v>
+        <v>0.02518694209363544</v>
       </c>
       <c r="J16">
-        <v>0.02744427590954044</v>
+        <v>0.02518694209363544</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>881.1008781210857</v>
+        <v>991.8663287810946</v>
       </c>
       <c r="R16">
-        <v>881.1008781210857</v>
+        <v>8926.796959029853</v>
       </c>
       <c r="S16">
-        <v>0.007178904224982474</v>
+        <v>0.006970298210187649</v>
       </c>
       <c r="T16">
-        <v>0.007178904224982474</v>
+        <v>0.00697029821018765</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.24502702904209</v>
+        <v>7.468602333333333</v>
       </c>
       <c r="H17">
-        <v>7.24502702904209</v>
+        <v>22.405807</v>
       </c>
       <c r="I17">
-        <v>0.02744427590954044</v>
+        <v>0.02518694209363544</v>
       </c>
       <c r="J17">
-        <v>0.02744427590954044</v>
+        <v>0.02518694209363544</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>905.0059425469681</v>
+        <v>938.8569677391627</v>
       </c>
       <c r="R17">
-        <v>905.0059425469681</v>
+        <v>8449.712709652464</v>
       </c>
       <c r="S17">
-        <v>0.007373674395194314</v>
+        <v>0.006597777192312351</v>
       </c>
       <c r="T17">
-        <v>0.007373674395194314</v>
+        <v>0.006597777192312351</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.24502702904209</v>
+        <v>7.468602333333333</v>
       </c>
       <c r="H18">
-        <v>7.24502702904209</v>
+        <v>22.405807</v>
       </c>
       <c r="I18">
-        <v>0.02744427590954044</v>
+        <v>0.02518694209363544</v>
       </c>
       <c r="J18">
-        <v>0.02744427590954044</v>
+        <v>0.02518694209363544</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>381.5745021899792</v>
+        <v>400.2161220107905</v>
       </c>
       <c r="R18">
-        <v>381.5745021899792</v>
+        <v>3601.945098097115</v>
       </c>
       <c r="S18">
-        <v>0.00310893664271298</v>
+        <v>0.002812501682931639</v>
       </c>
       <c r="T18">
-        <v>0.00310893664271298</v>
+        <v>0.002812501682931639</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.24502702904209</v>
+        <v>7.468602333333333</v>
       </c>
       <c r="H19">
-        <v>7.24502702904209</v>
+        <v>22.405807</v>
       </c>
       <c r="I19">
-        <v>0.02744427590954044</v>
+        <v>0.02518694209363544</v>
       </c>
       <c r="J19">
-        <v>0.02744427590954044</v>
+        <v>0.02518694209363544</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>157.1059410456259</v>
+        <v>171.7981284324675</v>
       </c>
       <c r="R19">
-        <v>157.1059410456259</v>
+        <v>1546.183155892208</v>
       </c>
       <c r="S19">
-        <v>0.001280044694027982</v>
+        <v>0.00120730400093126</v>
       </c>
       <c r="T19">
-        <v>0.001280044694027982</v>
+        <v>0.001207304000931261</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.52784248120255</v>
+        <v>7.095467333333333</v>
       </c>
       <c r="H20">
-        <v>6.52784248120255</v>
+        <v>21.286402</v>
       </c>
       <c r="I20">
-        <v>0.02472756960464075</v>
+        <v>0.02392859023358746</v>
       </c>
       <c r="J20">
-        <v>0.02472756960464075</v>
+        <v>0.02392859023358746</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>10.47831879340075</v>
+        <v>12.410334234834</v>
       </c>
       <c r="R20">
-        <v>10.47831879340075</v>
+        <v>111.693008113506</v>
       </c>
       <c r="S20">
-        <v>8.537370569538848E-05</v>
+        <v>8.72130931304004E-05</v>
       </c>
       <c r="T20">
-        <v>8.537370569538848E-05</v>
+        <v>8.721309313040041E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.52784248120255</v>
+        <v>7.095467333333333</v>
       </c>
       <c r="H21">
-        <v>6.52784248120255</v>
+        <v>21.286402</v>
       </c>
       <c r="I21">
-        <v>0.02472756960464075</v>
+        <v>0.02392859023358746</v>
       </c>
       <c r="J21">
-        <v>0.02472756960464075</v>
+        <v>0.02392859023358746</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>929.7964920051463</v>
+        <v>1014.904096181925</v>
       </c>
       <c r="R21">
-        <v>929.7964920051463</v>
+        <v>9134.13686563732</v>
       </c>
       <c r="S21">
-        <v>0.007575659190198111</v>
+        <v>0.007132195135429643</v>
       </c>
       <c r="T21">
-        <v>0.007575659190198111</v>
+        <v>0.007132195135429644</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.52784248120255</v>
+        <v>7.095467333333333</v>
       </c>
       <c r="H22">
-        <v>6.52784248120255</v>
+        <v>21.286402</v>
       </c>
       <c r="I22">
-        <v>0.02472756960464075</v>
+        <v>0.02392859023358746</v>
       </c>
       <c r="J22">
-        <v>0.02472756960464075</v>
+        <v>0.02392859023358746</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>793.8807846220222</v>
+        <v>942.3122052554746</v>
       </c>
       <c r="R22">
-        <v>793.8807846220222</v>
+        <v>8480.809847299271</v>
       </c>
       <c r="S22">
-        <v>0.006468265167331071</v>
+        <v>0.006622058726201417</v>
       </c>
       <c r="T22">
-        <v>0.006468265167331071</v>
+        <v>0.006622058726201419</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.52784248120255</v>
+        <v>7.095467333333333</v>
       </c>
       <c r="H23">
-        <v>6.52784248120255</v>
+        <v>21.286402</v>
       </c>
       <c r="I23">
-        <v>0.02472756960464075</v>
+        <v>0.02392859023358746</v>
       </c>
       <c r="J23">
-        <v>0.02472756960464075</v>
+        <v>0.02392859023358746</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>815.4194889566825</v>
+        <v>891.9512176373225</v>
       </c>
       <c r="R23">
-        <v>815.4194889566825</v>
+        <v>8027.560958735904</v>
       </c>
       <c r="S23">
-        <v>0.006643755056614203</v>
+        <v>0.006268149039308961</v>
       </c>
       <c r="T23">
-        <v>0.006643755056614203</v>
+        <v>0.006268149039308962</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.52784248120255</v>
+        <v>7.095467333333333</v>
       </c>
       <c r="H24">
-        <v>6.52784248120255</v>
+        <v>21.286402</v>
       </c>
       <c r="I24">
-        <v>0.02472756960464075</v>
+        <v>0.02392859023358746</v>
       </c>
       <c r="J24">
-        <v>0.02472756960464075</v>
+        <v>0.02392859023358746</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>343.8024779141223</v>
+        <v>380.2211301740988</v>
       </c>
       <c r="R24">
-        <v>343.8024779141223</v>
+        <v>3421.99017156689</v>
       </c>
       <c r="S24">
-        <v>0.002801183295288866</v>
+        <v>0.00267198773284798</v>
       </c>
       <c r="T24">
-        <v>0.002801183295288866</v>
+        <v>0.002671987732847981</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.52784248120255</v>
+        <v>7.095467333333333</v>
       </c>
       <c r="H25">
-        <v>6.52784248120255</v>
+        <v>21.286402</v>
       </c>
       <c r="I25">
-        <v>0.02472756960464075</v>
+        <v>0.02392859023358746</v>
       </c>
       <c r="J25">
-        <v>0.02472756960464075</v>
+        <v>0.02392859023358746</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>141.5540386386297</v>
+        <v>163.2150104953209</v>
       </c>
       <c r="R25">
-        <v>141.5540386386297</v>
+        <v>1468.935094457888</v>
       </c>
       <c r="S25">
-        <v>0.001153333189513107</v>
+        <v>0.00114698650666906</v>
       </c>
       <c r="T25">
-        <v>0.001153333189513107</v>
+        <v>0.001146986506669061</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.896850261827841</v>
+        <v>1.040605666666667</v>
       </c>
       <c r="H26">
-        <v>0.896850261827841</v>
+        <v>3.121817</v>
       </c>
       <c r="I26">
-        <v>0.00339728284469922</v>
+        <v>0.003509314527520777</v>
       </c>
       <c r="J26">
-        <v>0.00339728284469922</v>
+        <v>0.003509314527520777</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>1.439600140542279</v>
+        <v>1.820072381889001</v>
       </c>
       <c r="R26">
-        <v>1.439600140542279</v>
+        <v>16.380651437001</v>
       </c>
       <c r="S26">
-        <v>1.172936242358854E-05</v>
+        <v>1.279048083170971E-05</v>
       </c>
       <c r="T26">
-        <v>1.172936242358854E-05</v>
+        <v>1.279048083170971E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.896850261827841</v>
+        <v>1.040605666666667</v>
       </c>
       <c r="H27">
-        <v>0.896850261827841</v>
+        <v>3.121817</v>
       </c>
       <c r="I27">
-        <v>0.00339728284469922</v>
+        <v>0.003509314527520777</v>
       </c>
       <c r="J27">
-        <v>0.00339728284469922</v>
+        <v>0.003509314527520777</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>127.7433133079838</v>
+        <v>148.8436073334689</v>
       </c>
       <c r="R27">
-        <v>127.7433133079838</v>
+        <v>1339.59246600122</v>
       </c>
       <c r="S27">
-        <v>0.001040808191651714</v>
+        <v>0.001045992085515512</v>
       </c>
       <c r="T27">
-        <v>0.001040808191651714</v>
+        <v>0.001045992085515512</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.896850261827841</v>
+        <v>1.040605666666667</v>
       </c>
       <c r="H28">
-        <v>0.896850261827841</v>
+        <v>3.121817</v>
       </c>
       <c r="I28">
-        <v>0.00339728284469922</v>
+        <v>0.003509314527520777</v>
       </c>
       <c r="J28">
-        <v>0.00339728284469922</v>
+        <v>0.003509314527520777</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>109.0700628268209</v>
+        <v>138.1974399278014</v>
       </c>
       <c r="R28">
-        <v>109.0700628268209</v>
+        <v>1243.776959350212</v>
       </c>
       <c r="S28">
-        <v>0.0008886650260936</v>
+        <v>0.0009711765993357605</v>
       </c>
       <c r="T28">
-        <v>0.0008886650260936</v>
+        <v>0.0009711765993357607</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.896850261827841</v>
+        <v>1.040605666666667</v>
       </c>
       <c r="H29">
-        <v>0.896850261827841</v>
+        <v>3.121817</v>
       </c>
       <c r="I29">
-        <v>0.00339728284469922</v>
+        <v>0.003509314527520777</v>
       </c>
       <c r="J29">
-        <v>0.00339728284469922</v>
+        <v>0.003509314527520777</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>112.0292323652399</v>
+        <v>130.8116080111093</v>
       </c>
       <c r="R29">
-        <v>112.0292323652399</v>
+        <v>1177.304472099984</v>
       </c>
       <c r="S29">
-        <v>0.0009127753127013005</v>
+        <v>0.0009192729813825928</v>
       </c>
       <c r="T29">
-        <v>0.0009127753127013005</v>
+        <v>0.0009192729813825928</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.896850261827841</v>
+        <v>1.040605666666667</v>
       </c>
       <c r="H30">
-        <v>0.896850261827841</v>
+        <v>3.121817</v>
       </c>
       <c r="I30">
-        <v>0.00339728284469922</v>
+        <v>0.003509314527520777</v>
       </c>
       <c r="J30">
-        <v>0.00339728284469922</v>
+        <v>0.003509314527520777</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>47.23449489203043</v>
+        <v>55.76239647906278</v>
       </c>
       <c r="R30">
-        <v>47.23449489203043</v>
+        <v>501.861568311565</v>
       </c>
       <c r="S30">
-        <v>0.0003848502746568714</v>
+        <v>0.0003918678566812881</v>
       </c>
       <c r="T30">
-        <v>0.0003848502746568714</v>
+        <v>0.0003918678566812881</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.896850261827841</v>
+        <v>1.040605666666667</v>
       </c>
       <c r="H31">
-        <v>0.896850261827841</v>
+        <v>3.121817</v>
       </c>
       <c r="I31">
-        <v>0.00339728284469922</v>
+        <v>0.003509314527520777</v>
       </c>
       <c r="J31">
-        <v>0.00339728284469922</v>
+        <v>0.003509314527520777</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N31">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q31">
-        <v>19.447892160605</v>
+        <v>23.93675523084978</v>
       </c>
       <c r="R31">
-        <v>19.447892160605</v>
+        <v>215.430797077648</v>
       </c>
       <c r="S31">
-        <v>0.0001584546771721457</v>
+        <v>0.0001682145237739138</v>
       </c>
       <c r="T31">
-        <v>0.0001584546771721457</v>
+        <v>0.0001682145237739139</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>22.0957913355527</v>
+        <v>22.570514</v>
       </c>
       <c r="H32">
-        <v>22.0957913355527</v>
+        <v>67.71154200000001</v>
       </c>
       <c r="I32">
-        <v>0.08369920380168928</v>
+        <v>0.07611628036538762</v>
       </c>
       <c r="J32">
-        <v>0.08369920380168928</v>
+        <v>0.07611628036538762</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N32">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q32">
-        <v>35.46757543140529</v>
+        <v>39.47698008221401</v>
       </c>
       <c r="R32">
-        <v>35.46757543140529</v>
+        <v>355.2928207399261</v>
       </c>
       <c r="S32">
-        <v>0.0002889774978517375</v>
+        <v>0.0002774227893680209</v>
       </c>
       <c r="T32">
-        <v>0.0002889774978517375</v>
+        <v>0.000277422789368021</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>22.0957913355527</v>
+        <v>22.570514</v>
       </c>
       <c r="H33">
-        <v>22.0957913355527</v>
+        <v>67.71154200000001</v>
       </c>
       <c r="I33">
-        <v>0.08369920380168928</v>
+        <v>0.07611628036538762</v>
       </c>
       <c r="J33">
-        <v>0.08369920380168928</v>
+        <v>0.07611628036538762</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N33">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q33">
-        <v>3147.2250335443</v>
+        <v>3228.385959007748</v>
       </c>
       <c r="R33">
-        <v>3147.2250335443</v>
+        <v>29055.47363106973</v>
       </c>
       <c r="S33">
-        <v>0.02564249752929749</v>
+        <v>0.02268734427099705</v>
       </c>
       <c r="T33">
-        <v>0.02564249752929749</v>
+        <v>0.02268734427099705</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>22.0957913355527</v>
+        <v>22.570514</v>
       </c>
       <c r="H34">
-        <v>22.0957913355527</v>
+        <v>67.71154200000001</v>
       </c>
       <c r="I34">
-        <v>0.08369920380168928</v>
+        <v>0.07611628036538762</v>
       </c>
       <c r="J34">
-        <v>0.08369920380168928</v>
+        <v>0.07611628036538762</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N34">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q34">
-        <v>2687.170257680851</v>
+        <v>2997.472868513368</v>
       </c>
       <c r="R34">
-        <v>2687.170257680851</v>
+        <v>26977.25581662032</v>
       </c>
       <c r="S34">
-        <v>0.02189413084827415</v>
+        <v>0.02106461240211727</v>
       </c>
       <c r="T34">
-        <v>0.02189413084827415</v>
+        <v>0.02106461240211727</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>22.0957913355527</v>
+        <v>22.570514</v>
       </c>
       <c r="H35">
-        <v>22.0957913355527</v>
+        <v>67.71154200000001</v>
       </c>
       <c r="I35">
-        <v>0.08369920380168928</v>
+        <v>0.07611628036538762</v>
       </c>
       <c r="J35">
-        <v>0.08369920380168928</v>
+        <v>0.07611628036538762</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N35">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q35">
-        <v>2760.075619289567</v>
+        <v>2837.275756372576</v>
       </c>
       <c r="R35">
-        <v>2760.075619289567</v>
+        <v>25535.48180735319</v>
       </c>
       <c r="S35">
-        <v>0.0224881384374991</v>
+        <v>0.01993883404707985</v>
       </c>
       <c r="T35">
-        <v>0.0224881384374991</v>
+        <v>0.01993883404707985</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>22.0957913355527</v>
+        <v>22.570514</v>
       </c>
       <c r="H36">
-        <v>22.0957913355527</v>
+        <v>67.71154200000001</v>
       </c>
       <c r="I36">
-        <v>0.08369920380168928</v>
+        <v>0.07611628036538762</v>
       </c>
       <c r="J36">
-        <v>0.08369920380168928</v>
+        <v>0.07611628036538762</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N36">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O36">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P36">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q36">
-        <v>1163.721066265217</v>
+        <v>1209.474434668243</v>
       </c>
       <c r="R36">
-        <v>1163.721066265217</v>
+        <v>10885.26991201419</v>
       </c>
       <c r="S36">
-        <v>0.009481595452642815</v>
+        <v>0.008499529868703073</v>
       </c>
       <c r="T36">
-        <v>0.009481595452642815</v>
+        <v>0.008499529868703075</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>22.0957913355527</v>
+        <v>22.570514</v>
       </c>
       <c r="H37">
-        <v>22.0957913355527</v>
+        <v>67.71154200000001</v>
       </c>
       <c r="I37">
-        <v>0.08369920380168928</v>
+        <v>0.07611628036538762</v>
       </c>
       <c r="J37">
-        <v>0.08369920380168928</v>
+        <v>0.07611628036538762</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N37">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q37">
-        <v>479.1397018954625</v>
+        <v>519.1830934220054</v>
       </c>
       <c r="R37">
-        <v>479.1397018954625</v>
+        <v>4672.647840798048</v>
       </c>
       <c r="S37">
-        <v>0.003903864036123996</v>
+        <v>0.00364853698712236</v>
       </c>
       <c r="T37">
-        <v>0.003903864036123996</v>
+        <v>0.003648536987122361</v>
       </c>
     </row>
   </sheetData>
